--- a/data/fakecsv/dept_MSFT.xlsx
+++ b/data/fakecsv/dept_MSFT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="101">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,280 +40,256 @@
     <t>MSFT</t>
   </si>
   <si>
-    <t>X02H21G18CUFVL0SN</t>
-  </si>
-  <si>
-    <t>DNKGSR5X1S0EJ0U1A</t>
-  </si>
-  <si>
-    <t>F2UJLHYA4L99G345U</t>
-  </si>
-  <si>
-    <t>XVDY0SM42UKLLGMBD</t>
-  </si>
-  <si>
-    <t>B7RK8PWV4TG9AKCFU</t>
-  </si>
-  <si>
-    <t>6EEAUBBL2B16K31D7</t>
-  </si>
-  <si>
-    <t>1A12A32V48TEP8PPZ</t>
-  </si>
-  <si>
-    <t>6FYTCKB85Z8E3890K</t>
-  </si>
-  <si>
-    <t>KXDJYP468PN2J8Z0F</t>
-  </si>
-  <si>
-    <t>0KN6NAFB1FKUDBFF3</t>
-  </si>
-  <si>
-    <t>SAAZRXXP0TFD96C0B</t>
-  </si>
-  <si>
-    <t>L7VRGR488N2667K66</t>
-  </si>
-  <si>
-    <t>PRHHU9AV2WNTT4PBM</t>
-  </si>
-  <si>
-    <t>M3VP5R26204M6J03B</t>
-  </si>
-  <si>
-    <t>JUF4VRDD85NZFA5RP</t>
-  </si>
-  <si>
-    <t>A42RBCXZ9YBWH3U78</t>
-  </si>
-  <si>
-    <t>HMKDS1XX8BV1CSXV8</t>
-  </si>
-  <si>
-    <t>GG19HG9R05MNMRWTD</t>
-  </si>
-  <si>
-    <t>ZYN5VY0C48Y36W98G</t>
-  </si>
-  <si>
-    <t>T10J5K477JG4YW8YX</t>
-  </si>
-  <si>
-    <t>JM04FHPL2V2J82H78</t>
-  </si>
-  <si>
-    <t>HHM3D6KW28Z0GL4WH</t>
-  </si>
-  <si>
-    <t>BNMHJKP799AUAXD6S</t>
-  </si>
-  <si>
-    <t>942A8S237GGW1P3VR</t>
-  </si>
-  <si>
-    <t>0DZRWE5W3YW5ETGEM</t>
-  </si>
-  <si>
-    <t>AZ6NTZ0H9D8MZM7WY</t>
-  </si>
-  <si>
-    <t>FZMECBHK79RKN7V0P</t>
-  </si>
-  <si>
-    <t>HVZK143W9HNHXE1Z2</t>
-  </si>
-  <si>
-    <t>R8E4WL3B64CVVTVJJ</t>
-  </si>
-  <si>
-    <t>SK3DKEWYXB6ZLSAD3</t>
-  </si>
-  <si>
-    <t>E2SKRNT118486BK2W</t>
-  </si>
-  <si>
-    <t>HT86LEFL69DMMYDY1</t>
-  </si>
-  <si>
-    <t>EV6JMHFFX55ZVDRHU</t>
-  </si>
-  <si>
-    <t>RG69CLRZ360KC0WK9</t>
-  </si>
-  <si>
-    <t>28PF60FS285880SEG</t>
-  </si>
-  <si>
-    <t>D44J99A662PM69L4G</t>
-  </si>
-  <si>
-    <t>0AWRNZG32KP573Z7R</t>
-  </si>
-  <si>
-    <t>WMW5M8ZW9NA0MUFN7</t>
-  </si>
-  <si>
-    <t>08DC9KMA66ALND97A</t>
-  </si>
-  <si>
-    <t>WFULVAFF8N7TZ32W9</t>
-  </si>
-  <si>
-    <t>FR8L4ZSHXDS1SEPDJ</t>
-  </si>
-  <si>
-    <t>8GU6A4PE34ENUVEKN</t>
-  </si>
-  <si>
-    <t>ZDKTB7M36XY6Z985G</t>
-  </si>
-  <si>
-    <t>UTY1GLB086328H8V4</t>
-  </si>
-  <si>
-    <t>HHZBAZ9M517DY1SH8</t>
-  </si>
-  <si>
-    <t>HESM2J0L5XZFRXKY4</t>
-  </si>
-  <si>
-    <t>Bryan Johnson</t>
-  </si>
-  <si>
-    <t>Andrea Bennett</t>
-  </si>
-  <si>
-    <t>Julie Mitchell</t>
-  </si>
-  <si>
-    <t>Regina Fitzgerald</t>
-  </si>
-  <si>
-    <t>Sandra Rose</t>
-  </si>
-  <si>
-    <t>Michael Torres</t>
-  </si>
-  <si>
-    <t>Jared Bennett</t>
-  </si>
-  <si>
-    <t>Howard Sanders PhD</t>
-  </si>
-  <si>
-    <t>Michelle Daniels</t>
-  </si>
-  <si>
-    <t>Donald Schmidt</t>
-  </si>
-  <si>
-    <t>Valerie Gutierrez</t>
-  </si>
-  <si>
-    <t>Timothy Lewis</t>
-  </si>
-  <si>
-    <t>Christopher Knapp</t>
-  </si>
-  <si>
-    <t>Mindy Mckinney</t>
-  </si>
-  <si>
-    <t>Catherine Adams</t>
-  </si>
-  <si>
-    <t>Jason Rodgers</t>
-  </si>
-  <si>
-    <t>Joy Franklin</t>
-  </si>
-  <si>
-    <t>Christy Scott</t>
-  </si>
-  <si>
-    <t>Patrick Diaz</t>
-  </si>
-  <si>
-    <t>Lisa Keith</t>
-  </si>
-  <si>
-    <t>Heather Reed</t>
-  </si>
-  <si>
-    <t>Jesse Lawson</t>
-  </si>
-  <si>
-    <t>Michael Rice</t>
-  </si>
-  <si>
-    <t>Susan Mccarthy</t>
-  </si>
-  <si>
-    <t>Calvin Brown</t>
-  </si>
-  <si>
-    <t>Gabrielle Cherry</t>
-  </si>
-  <si>
-    <t>Gerald Yang</t>
-  </si>
-  <si>
-    <t>Miguel Ramos</t>
-  </si>
-  <si>
-    <t>William Shaffer</t>
-  </si>
-  <si>
-    <t>Ryan Williams</t>
-  </si>
-  <si>
-    <t>Tara Walters</t>
-  </si>
-  <si>
-    <t>Sarah Campbell</t>
-  </si>
-  <si>
-    <t>Kenneth Stevenson</t>
-  </si>
-  <si>
-    <t>Grace Martinez</t>
-  </si>
-  <si>
-    <t>Erica Jackson</t>
-  </si>
-  <si>
-    <t>Daniel Jones</t>
-  </si>
-  <si>
-    <t>Steven Hartman</t>
-  </si>
-  <si>
-    <t>Jeremy Dawson</t>
-  </si>
-  <si>
-    <t>Anthony White</t>
-  </si>
-  <si>
-    <t>Mario Richard</t>
-  </si>
-  <si>
-    <t>Cristian Berry</t>
-  </si>
-  <si>
-    <t>Tina Sullivan</t>
-  </si>
-  <si>
-    <t>Monique Caldwell</t>
-  </si>
-  <si>
-    <t>Brandon Davis</t>
-  </si>
-  <si>
-    <t>Hannah Johnson</t>
-  </si>
-  <si>
-    <t>Jasmine Garcia</t>
+    <t>8ZHTZKDS3LV0XYDRJ</t>
+  </si>
+  <si>
+    <t>JX0K2VZT9C7SB5XJX</t>
+  </si>
+  <si>
+    <t>2R5YCESX59H19NFMY</t>
+  </si>
+  <si>
+    <t>0GY8R0SU4AGYEDA6W</t>
+  </si>
+  <si>
+    <t>9FUXNYM4701TVTTEK</t>
+  </si>
+  <si>
+    <t>84VMZT0J5EV4Z4PTA</t>
+  </si>
+  <si>
+    <t>J5FVXYFHXCTV0F8B2</t>
+  </si>
+  <si>
+    <t>9YKXW3H793K5F5P8U</t>
+  </si>
+  <si>
+    <t>UJHCDGW5XVREEHTJ6</t>
+  </si>
+  <si>
+    <t>J9NMAJ9NXRDB8H9VV</t>
+  </si>
+  <si>
+    <t>LUSH4YFM198L0T17C</t>
+  </si>
+  <si>
+    <t>B0T4MTE15YK83TNG9</t>
+  </si>
+  <si>
+    <t>RDWY77Y55ARX34WHB</t>
+  </si>
+  <si>
+    <t>EV2S0S8K0N725ZXWE</t>
+  </si>
+  <si>
+    <t>GS9678SP2JMW0MGJC</t>
+  </si>
+  <si>
+    <t>U3PEA95G89A21J3S4</t>
+  </si>
+  <si>
+    <t>YDAURLZM6VAD5DRD1</t>
+  </si>
+  <si>
+    <t>2MXP3N6W2BTSX90FC</t>
+  </si>
+  <si>
+    <t>WU3B98UV0134L0CEA</t>
+  </si>
+  <si>
+    <t>6ZCWTERS0VE2PLHFV</t>
+  </si>
+  <si>
+    <t>E01WEM729E76UA2M8</t>
+  </si>
+  <si>
+    <t>XTA7GXB034T8WSUCU</t>
+  </si>
+  <si>
+    <t>36YGBSJL4CNMDST1C</t>
+  </si>
+  <si>
+    <t>8B4GNML15YXXVADSK</t>
+  </si>
+  <si>
+    <t>057PEZHR8B26RL557</t>
+  </si>
+  <si>
+    <t>PRD2MAMX0VUZJWKZW</t>
+  </si>
+  <si>
+    <t>6UEAKUUG0MDWUWSM7</t>
+  </si>
+  <si>
+    <t>X97FTYEN788CYS04E</t>
+  </si>
+  <si>
+    <t>8MY25RXP63EZPZGMR</t>
+  </si>
+  <si>
+    <t>S9HGC4190C15CYNGS</t>
+  </si>
+  <si>
+    <t>07HV4ZRG4P54C2WT5</t>
+  </si>
+  <si>
+    <t>G7JVD2NB55B88HDBU</t>
+  </si>
+  <si>
+    <t>LPVMT3F59VPK908B7</t>
+  </si>
+  <si>
+    <t>GC52YU0G8WD6VECZT</t>
+  </si>
+  <si>
+    <t>KF81MLDW4UCRTMGRJ</t>
+  </si>
+  <si>
+    <t>ZLVSSJSM4AV0Y0VZ1</t>
+  </si>
+  <si>
+    <t>V92RNKD531E0H4EBW</t>
+  </si>
+  <si>
+    <t>ETLVMEE98NG5W3RLP</t>
+  </si>
+  <si>
+    <t>RV8WVBES7MXML991L</t>
+  </si>
+  <si>
+    <t>8LJ3R6S41DRAEJVC7</t>
+  </si>
+  <si>
+    <t>EBEVK5K23Y82NFYPJ</t>
+  </si>
+  <si>
+    <t>VU65FSUK0GBY686UT</t>
+  </si>
+  <si>
+    <t>Lucas Francis</t>
+  </si>
+  <si>
+    <t>Christopher Gomez</t>
+  </si>
+  <si>
+    <t>Robin Smith</t>
+  </si>
+  <si>
+    <t>Anthony Wyatt</t>
+  </si>
+  <si>
+    <t>Rachael Ballard</t>
+  </si>
+  <si>
+    <t>Dr. Nichole Thomas</t>
+  </si>
+  <si>
+    <t>Donald Watts</t>
+  </si>
+  <si>
+    <t>Barbara Peck</t>
+  </si>
+  <si>
+    <t>Danielle Knox</t>
+  </si>
+  <si>
+    <t>Todd Rosales</t>
+  </si>
+  <si>
+    <t>William Alvarez</t>
+  </si>
+  <si>
+    <t>Andrea Miller</t>
+  </si>
+  <si>
+    <t>Judith Hill</t>
+  </si>
+  <si>
+    <t>William Garcia</t>
+  </si>
+  <si>
+    <t>Kevin Rogers</t>
+  </si>
+  <si>
+    <t>Mrs. Sarah Garner</t>
+  </si>
+  <si>
+    <t>Beverly Thompson</t>
+  </si>
+  <si>
+    <t>Lauren Rice</t>
+  </si>
+  <si>
+    <t>Kari Gray</t>
+  </si>
+  <si>
+    <t>Dominique Wells</t>
+  </si>
+  <si>
+    <t>David Klein</t>
+  </si>
+  <si>
+    <t>Paul Clark</t>
+  </si>
+  <si>
+    <t>Jeffrey Wallace</t>
+  </si>
+  <si>
+    <t>Megan Solis</t>
+  </si>
+  <si>
+    <t>Maria Hull</t>
+  </si>
+  <si>
+    <t>Mary Little</t>
+  </si>
+  <si>
+    <t>Erica Sherman</t>
+  </si>
+  <si>
+    <t>Veronica Stewart</t>
+  </si>
+  <si>
+    <t>Sharon Watson</t>
+  </si>
+  <si>
+    <t>Travis Greene</t>
+  </si>
+  <si>
+    <t>Daniel Cannon</t>
+  </si>
+  <si>
+    <t>Carlos Walls</t>
+  </si>
+  <si>
+    <t>Mark Arellano</t>
+  </si>
+  <si>
+    <t>Brian Steele</t>
+  </si>
+  <si>
+    <t>Alejandro Montgomery</t>
+  </si>
+  <si>
+    <t>Jeffrey Smith</t>
+  </si>
+  <si>
+    <t>Catherine Harmon</t>
+  </si>
+  <si>
+    <t>Matthew Carlson</t>
+  </si>
+  <si>
+    <t>April Colon</t>
+  </si>
+  <si>
+    <t>Patrick Allen</t>
+  </si>
+  <si>
+    <t>Nathan Morgan</t>
+  </si>
+  <si>
+    <t>Scott Ryan</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -698,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -752,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -769,10 +745,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -786,10 +762,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -803,10 +779,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -817,13 +793,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,13 +810,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -851,13 +827,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -868,13 +844,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -885,13 +861,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -902,13 +878,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -922,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -939,10 +915,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,13 +929,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -970,13 +946,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,13 +963,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +980,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,13 +997,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,13 +1014,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,13 +1031,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,13 +1048,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,13 +1065,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,13 +1082,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,13 +1099,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,13 +1116,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,13 +1167,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,13 +1184,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1225,13 +1201,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,13 +1218,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,13 +1235,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1276,13 +1252,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,13 +1269,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1310,13 +1286,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1327,13 +1303,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1344,13 +1320,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,13 +1337,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1378,13 +1354,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1395,13 +1371,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1412,13 +1388,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1429,13 +1405,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1446,13 +1422,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1463,13 +1439,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1480,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1497,13 +1473,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1514,13 +1490,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1531,13 +1507,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1548,13 +1524,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1565,13 +1541,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1582,13 +1558,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1599,13 +1575,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1616,13 +1592,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1633,13 +1609,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1650,13 +1626,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1667,13 +1643,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1684,13 +1660,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1704,10 +1680,10 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1721,10 +1697,10 @@
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1735,13 +1711,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1755,10 +1731,10 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1772,10 +1748,10 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1786,13 +1762,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1803,13 +1779,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1820,13 +1796,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1840,10 +1816,10 @@
         <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1857,10 +1833,10 @@
         <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1874,10 +1850,10 @@
         <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1891,10 +1867,10 @@
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1908,10 +1884,10 @@
         <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1922,13 +1898,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1939,13 +1915,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1959,10 +1935,10 @@
         <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1976,10 +1952,10 @@
         <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1993,10 +1969,10 @@
         <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2010,10 +1986,10 @@
         <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2024,13 +2000,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2044,10 +2020,10 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2061,10 +2037,10 @@
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2078,10 +2054,10 @@
         <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2095,10 +2071,10 @@
         <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2112,10 +2088,10 @@
         <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2126,13 +2102,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2143,13 +2119,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2160,13 +2136,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2177,10 +2153,10 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
         <v>100</v>
@@ -2194,13 +2170,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2211,13 +2187,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2228,13 +2204,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2248,10 +2224,10 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2262,13 +2238,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2279,13 +2255,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2296,13 +2272,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2313,13 +2289,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2330,13 +2306,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2347,13 +2323,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2364,13 +2340,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2381,13 +2357,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2398,13 +2374,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2415,13 +2391,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2432,13 +2408,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2449,13 +2425,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2466,13 +2442,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2483,13 +2459,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E105" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2500,13 +2476,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2517,13 +2493,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E107" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2534,13 +2510,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E108" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2551,13 +2527,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E109" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2568,13 +2544,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E110" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2585,13 +2561,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E111" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2602,13 +2578,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E112" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2619,13 +2595,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E113" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2636,13 +2612,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2656,10 +2632,10 @@
         <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E115" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2673,10 +2649,10 @@
         <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2687,13 +2663,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E117" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2704,13 +2680,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E118" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2724,10 +2700,10 @@
         <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E119" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2741,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E120" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2755,13 +2731,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E121" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2772,13 +2748,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E122" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2789,13 +2765,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2806,13 +2782,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E124" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2823,13 +2799,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D125" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E125" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2843,10 +2819,10 @@
         <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E126" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2857,13 +2833,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E127" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2874,13 +2850,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2891,10 +2867,10 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D129" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E129" t="s">
         <v>100</v>
@@ -2908,13 +2884,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E130" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2925,13 +2901,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E131" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2942,13 +2918,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E132" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2959,13 +2935,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2976,13 +2952,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E134" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2993,13 +2969,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D135" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E135" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3010,13 +2986,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D136" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E136" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3027,13 +3003,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E137" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3047,10 +3023,10 @@
         <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E138" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3064,10 +3040,10 @@
         <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E139" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3081,10 +3057,10 @@
         <v>34</v>
       </c>
       <c r="D140" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E140" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3098,10 +3074,10 @@
         <v>34</v>
       </c>
       <c r="D141" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E141" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3112,13 +3088,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E142" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3129,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E143" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3146,13 +3122,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E144" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3163,13 +3139,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E145" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3180,10 +3156,10 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D146" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E146" t="s">
         <v>100</v>
@@ -3197,13 +3173,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D147" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3214,13 +3190,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D148" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E148" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3234,10 +3210,10 @@
         <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E149" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3251,10 +3227,10 @@
         <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E150" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3268,10 +3244,10 @@
         <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E151" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3285,10 +3261,10 @@
         <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E152" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3299,13 +3275,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D153" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E153" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3316,13 +3292,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E154" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3336,10 +3312,10 @@
         <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E155" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3350,13 +3326,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E156" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3367,13 +3343,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D157" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E157" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3384,13 +3360,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E158" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3401,13 +3377,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D159" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E159" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3418,13 +3394,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E160" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3435,13 +3411,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D161" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E161" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3455,10 +3431,10 @@
         <v>39</v>
       </c>
       <c r="D162" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E162" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3472,10 +3448,10 @@
         <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E163" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3486,10 +3462,10 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E164" t="s">
         <v>100</v>
@@ -3506,10 +3482,10 @@
         <v>40</v>
       </c>
       <c r="D165" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E165" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3523,10 +3499,10 @@
         <v>40</v>
       </c>
       <c r="D166" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E166" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3540,10 +3516,10 @@
         <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E167" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3557,10 +3533,10 @@
         <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E168" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3574,10 +3550,10 @@
         <v>40</v>
       </c>
       <c r="D169" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E169" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3591,10 +3567,10 @@
         <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E170" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3608,10 +3584,10 @@
         <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E171" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3622,13 +3598,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3639,13 +3615,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E173" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3659,10 +3635,10 @@
         <v>41</v>
       </c>
       <c r="D174" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E174" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3676,10 +3652,10 @@
         <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E175" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3693,10 +3669,10 @@
         <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E176" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3707,13 +3683,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E177" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3724,13 +3700,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D178" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E178" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3741,13 +3717,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E179" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3758,13 +3734,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D180" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E180" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3775,13 +3751,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E181" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3792,13 +3768,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D182" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E182" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3809,13 +3785,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E183" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3826,13 +3802,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3843,13 +3819,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D185" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E185" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3860,13 +3836,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D186" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E186" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3877,13 +3853,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D187" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E187" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3894,13 +3870,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D188" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E188" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3911,13 +3887,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D189" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E189" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3928,13 +3904,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E190" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3945,13 +3921,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D191" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E191" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3962,13 +3938,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D192" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E192" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3979,13 +3955,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D193" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E193" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3996,13 +3972,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D194" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E194" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4013,13 +3989,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D195" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E195" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4030,13 +4006,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D196" t="s">
+        <v>87</v>
+      </c>
+      <c r="E196" t="s">
         <v>92</v>
-      </c>
-      <c r="E196" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4047,13 +4023,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D197" t="s">
+        <v>87</v>
+      </c>
+      <c r="E197" t="s">
         <v>93</v>
-      </c>
-      <c r="E197" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4064,13 +4040,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D198" t="s">
+        <v>87</v>
+      </c>
+      <c r="E198" t="s">
         <v>94</v>
-      </c>
-      <c r="E198" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4081,13 +4057,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D199" t="s">
+        <v>87</v>
+      </c>
+      <c r="E199" t="s">
         <v>95</v>
-      </c>
-      <c r="E199" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4098,13 +4074,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D200" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E200" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4115,13 +4091,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D201" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E201" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4132,13 +4108,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D202" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E202" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4149,13 +4125,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D203" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E203" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4166,13 +4142,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D204" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E204" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4183,13 +4159,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D205" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E205" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4200,13 +4176,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D206" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E206" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4217,13 +4193,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D207" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E207" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4234,13 +4210,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E208" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4251,13 +4227,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E209" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4268,13 +4244,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D210" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E210" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4285,13 +4261,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D211" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E211" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4302,13 +4278,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D212" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E212" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4319,13 +4295,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D213" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E213" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4336,13 +4312,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D214" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E214" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4353,13 +4329,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D215" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E215" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4370,13 +4346,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D216" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E216" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4387,13 +4363,13 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D217" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E217" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4404,13 +4380,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D218" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E218" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4421,13 +4397,13 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D219" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E219" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4438,13 +4414,64 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D220" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E220" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>49</v>
+      </c>
+      <c r="D221" t="s">
+        <v>91</v>
+      </c>
+      <c r="E221" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>49</v>
+      </c>
+      <c r="D222" t="s">
+        <v>91</v>
+      </c>
+      <c r="E222" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>49</v>
+      </c>
+      <c r="D223" t="s">
+        <v>91</v>
+      </c>
+      <c r="E223" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
